--- a/support/novels.xlsx
+++ b/support/novels.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Top English Novels" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chart" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Top English Novels" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Chart" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -46,27 +46,95 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="11"/>
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -90,7 +158,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -118,8 +186,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -145,8 +213,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -172,7 +240,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>3</col>
@@ -187,9 +255,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -495,7 +563,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -3141,12 +3209,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -3412,7 +3480,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>